--- a/AWS-Notes6.xlsx
+++ b/AWS-Notes6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AC2FA9-B0CE-4C68-88E0-836A696EC1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3364D5A-1C06-414C-9B33-C2F983F1A4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="957" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="957" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DisasterRecovery" sheetId="1" r:id="rId1"/>
@@ -1966,9 +1966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1981,7 +1979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4ADFBFD-2992-48C7-A593-1D4AE41096BB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -1996,7 +1994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94214917-AE49-4FC5-8A2D-8CFC0CCAA5DD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
@@ -2027,7 +2025,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="A1:XFD1048576"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,7 +2067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9594603A-631A-4E0F-8335-46BF3F6550BA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -2097,7 +2095,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7567FD88-14BC-4320-8BD9-1FFBA9364EF2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
